--- a/Excel/EquipHoneConfig.xlsx
+++ b/Excel/EquipHoneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1131,7 +1131,7 @@
   <dimension ref="C3:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1231,7 +1231,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1">
         <v>8</v>
@@ -1311,7 +1311,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10" s="1">
         <v>10</v>
@@ -1331,7 +1331,7 @@
         <v>15</v>
       </c>
       <c r="G11" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" s="1">
         <v>10</v>
@@ -1351,7 +1351,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12" s="1">
         <v>10</v>
@@ -1431,7 +1431,7 @@
         <v>20</v>
       </c>
       <c r="G16" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H16" s="1">
         <v>50</v>
@@ -1451,7 +1451,7 @@
         <v>21</v>
       </c>
       <c r="G17" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H17" s="1">
         <v>50</v>
@@ -1471,7 +1471,7 @@
         <v>22</v>
       </c>
       <c r="G18" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H18" s="1">
         <v>50</v>
@@ -1491,7 +1491,7 @@
         <v>23</v>
       </c>
       <c r="G19" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H19" s="1">
         <v>50</v>
